--- a/IS1308_SSAS_MultidimentionalAndDataMining/IS1308_SSAS_MultidimentionalAndDataMining/Question 1.xlsx
+++ b/IS1308_SSAS_MultidimentionalAndDataMining/IS1308_SSAS_MultidimentionalAndDataMining/Question 1.xlsx
@@ -9,40 +9,31 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="13725"/>
   </bookViews>
   <sheets>
-    <sheet name="tmp6C5A" sheetId="1" r:id="rId1"/>
+    <sheet name="tmp7FB9" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <customWorkbookViews>
-    <customWorkbookView name="a" guid="{705E98C3-12C3-42BE-9B32-82986278AAE5}" maximized="1" xWindow="-8" yWindow="22" windowWidth="1936" windowHeight="1066" activeSheetId="1"/>
-  </customWorkbookViews>
   <pivotCaches>
-    <pivotCache cacheId="124" r:id="rId2"/>
+    <pivotCache cacheId="16" r:id="rId2"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\PC\AppData\Local\Temp\tmp6C5A.odc" keepAlive="1" name="MAYTINH IS1308_SSAS_MultidimentionalAndDataMining" type="5" refreshedVersion="6" background="1">
-    <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=IS1308_SSAS_MultidimentionalAndDataMining;Data Source=MAYTINH;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="IS1308RayNauDWCube" commandType="1"/>
+  <connection id="1" odcFile="C:\Users\PC\AppData\Local\Temp\tmp7FB9.odc" keepAlive="1" name="MAYTINH IS1308_SSAS_MultidimentionalAndDataMining" type="5" refreshedVersion="6" background="1">
+    <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=IS1308_SSAS_MultidimentionalAndDataMining;Data Source=MAYTINH;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="IS1308 Ray Nau DW" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="57">
   <si>
     <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Insect Quantity</t>
   </si>
   <si>
     <t>9.881172, 105.542613</t>
@@ -54,16 +45,127 @@
     <t>9.881172, 105.542615</t>
   </si>
   <si>
+    <t>9.881172, 105.542644</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542680</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542681</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542682</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542683</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542684</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542685</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542686</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542688</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542689</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542691</t>
+  </si>
+  <si>
+    <t>9.881172, 105.542990</t>
+  </si>
+  <si>
+    <t>9.881173, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881174, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881175, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881176, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881177, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881178, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881179, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881182, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881183, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881184, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881186, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881187, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881188, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881189, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881190, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881191, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881193, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881194, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881195, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881196, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881197, 105.542687</t>
+  </si>
+  <si>
+    <t>9.881198, 105.542687</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>Canh mang</t>
   </si>
   <si>
     <t>Chau chau</t>
   </si>
   <si>
-    <t>Hai canh</t>
+    <t>Sau buom</t>
   </si>
   <si>
-    <t>Sau buom</t>
+    <t>Hai canh</t>
   </si>
   <si>
     <t>Canh cung</t>
@@ -73,6 +175,33 @@
   </si>
   <si>
     <t>Chuon chuon</t>
+  </si>
+  <si>
+    <t>Cang thang</t>
+  </si>
+  <si>
+    <t>Bong lua</t>
+  </si>
+  <si>
+    <t>Hat lua</t>
+  </si>
+  <si>
+    <t>La lua</t>
+  </si>
+  <si>
+    <t>Con trung khac</t>
+  </si>
+  <si>
+    <t>Than lua</t>
+  </si>
+  <si>
+    <t>Re cay</t>
+  </si>
+  <si>
+    <t>Dat</t>
+  </si>
+  <si>
+    <t>Insect Quantity</t>
   </si>
 </sst>
 </file>
@@ -556,7 +685,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -564,6 +693,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -638,47 +773,12 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Question 1.xlsx]tmp6C5A!PivotTable1</c:name>
+    <c:name>[Question 1.xlsx]tmp7FB9!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Analyst the insects which are most frequently trapped in the region, according to their kind, subtype, and diet for instance</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12256287004822072"/>
-          <c:y val="1.109580273295366E-2"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -712,47 +812,6 @@
     <c:pivotFmts>
       <c:pivotFmt>
         <c:idx val="0"/>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="7"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="8"/>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:layout/>
-          <c:dLblPos val="outEnd"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="9"/>
         <c:spPr>
           <a:solidFill>
             <a:schemeClr val="accent1"/>
@@ -763,19 +822,7 @@
           <a:effectLst/>
         </c:spPr>
         <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
+          <c:symbol val="none"/>
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
@@ -809,7 +856,6 @@
               <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -825,17 +871,7 @@
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="6.8854910578038206E-2"/>
-          <c:y val="8.3230965069652385E-2"/>
-          <c:w val="0.84217863028749318"/>
-          <c:h val="0.76835402445143064"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -845,7 +881,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>tmp6C5A!$B$1</c:f>
+              <c:f>tmp7FB9!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -894,7 +930,6 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -925,9 +960,536 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>tmp6C5A!$A$2:$A$15</c:f>
+              <c:f>tmp7FB9!$A$2:$A$432</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="175"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Hat lua</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Hat lua</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Re cay</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Dat</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Hat lua</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Re cay</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Dat</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Hat lua</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Dat</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Re cay</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Dat</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Hat lua</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Re cay</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Hat lua</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Re cay</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>Hat lua</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>Dat</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>Re cay</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>Dat</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>Re cay</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>Hat lua</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>Dat</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>Hat lua</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>Dat</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>Re cay</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>Dat</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>Re cay</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>Dat</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>Dat</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>Dat</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>Hat lua</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>Hat lua</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>Re cay</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>Hat lua</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>Re cay</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>Hat lua</c:v>
+                  </c:pt>
+                  <c:pt idx="128">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>Dat</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>Re cay</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="136">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>Hat lua</c:v>
+                  </c:pt>
+                  <c:pt idx="144">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="145">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="148">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>Re cay</c:v>
+                  </c:pt>
+                  <c:pt idx="151">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="152">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="154">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="155">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="156">
+                    <c:v>Re cay</c:v>
+                  </c:pt>
+                  <c:pt idx="157">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="158">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="159">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="160">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>Dat</c:v>
+                  </c:pt>
+                  <c:pt idx="162">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="163">
+                    <c:v>Dat</c:v>
+                  </c:pt>
+                  <c:pt idx="164">
+                    <c:v>Re cay</c:v>
+                  </c:pt>
+                  <c:pt idx="165">
+                    <c:v>Hat lua</c:v>
+                  </c:pt>
+                  <c:pt idx="166">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="167">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="168">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="169">
+                    <c:v>Con trung khac</c:v>
+                  </c:pt>
+                  <c:pt idx="170">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                  <c:pt idx="171">
+                    <c:v>Hat lua</c:v>
+                  </c:pt>
+                  <c:pt idx="172">
+                    <c:v>La lua</c:v>
+                  </c:pt>
+                  <c:pt idx="173">
+                    <c:v>Bong lua</c:v>
+                  </c:pt>
+                  <c:pt idx="174">
+                    <c:v>Than lua</c:v>
+                  </c:pt>
+                </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Canh mang</c:v>
@@ -936,39 +1498,767 @@
                     <c:v>Canh mang</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>Chau chau</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Hai canh</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>Sau buom</c:v>
                   </c:pt>
                   <c:pt idx="5">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
                     <c:v>Canh cung</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="13">
                     <c:v>Canh mang</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="14">
                     <c:v>Canh nua</c:v>
                   </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="124">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="125">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="127">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="129">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="130">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="133">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="134">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="137">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="138">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="140">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="143">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="146">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="147">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="148">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="150">
+                    <c:v>Canh nua</c:v>
+                  </c:pt>
+                  <c:pt idx="151">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="152">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="154">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="155">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                  <c:pt idx="156">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="157">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="158">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="159">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="162">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="164">
+                    <c:v>Sau buom</c:v>
+                  </c:pt>
+                  <c:pt idx="165">
+                    <c:v>Cang thang</c:v>
+                  </c:pt>
+                  <c:pt idx="166">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="168">
+                    <c:v>Chau chau</c:v>
+                  </c:pt>
+                  <c:pt idx="170">
+                    <c:v>Canh cung</c:v>
+                  </c:pt>
+                  <c:pt idx="171">
+                    <c:v>Canh mang</c:v>
+                  </c:pt>
+                  <c:pt idx="173">
+                    <c:v>Chuon chuon</c:v>
+                  </c:pt>
+                  <c:pt idx="174">
+                    <c:v>Hai canh</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>True</c:v>
+                  </c:pt>
                   <c:pt idx="8">
-                    <c:v>Chuon chuon</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Hai canh</c:v>
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="126">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="135">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="142">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="153">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="157">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="161">
+                    <c:v>True</c:v>
+                  </c:pt>
+                  <c:pt idx="165">
+                    <c:v>False</c:v>
+                  </c:pt>
+                  <c:pt idx="170">
+                    <c:v>True</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>9.881172, 105.542613</c:v>
                   </c:pt>
-                  <c:pt idx="1">
+                  <c:pt idx="2">
                     <c:v>9.881172, 105.542614</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="8">
                     <c:v>9.881172, 105.542615</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>9.881172, 105.542644</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>9.881172, 105.542680</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>9.881172, 105.542681</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>9.881172, 105.542682</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>9.881172, 105.542683</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>9.881172, 105.542684</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>9.881172, 105.542685</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>9.881172, 105.542686</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>9.881172, 105.542688</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>9.881172, 105.542689</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>9.881172, 105.542691</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>9.881172, 105.542990</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>9.881173, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>9.881174, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>9.881175, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>9.881176, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>9.881177, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>9.881178, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>9.881179, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>9.881182, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>9.881183, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>9.881184, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>9.881186, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>9.881187, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>9.881188, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>9.881189, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>9.881190, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="131">
+                    <c:v>9.881191, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="132">
+                    <c:v>9.881193, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="139">
+                    <c:v>9.881194, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="141">
+                    <c:v>9.881195, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="149">
+                    <c:v>9.881196, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="157">
+                    <c:v>9.881197, 105.542687</c:v>
+                  </c:pt>
+                  <c:pt idx="165">
+                    <c:v>9.881198, 105.542687</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -976,53 +2266,547 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tmp6C5A!$B$2:$B$15</c:f>
+              <c:f>tmp7FB9!$B$2:$B$432</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="175"/>
                 <c:pt idx="0">
-                  <c:v>122</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>172</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>342</c:v>
-                </c:pt>
                 <c:pt idx="4">
-                  <c:v>163</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>135</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>180</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="15">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="16">
                   <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-65F3-4DFB-B34F-07985424BAF6}"/>
+              <c16:uniqueId val="{00000000-B0E4-4AE2-B103-78DD92555D14}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1030,11 +2814,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="345743199"/>
-        <c:axId val="345746943"/>
+        <c:axId val="611398831"/>
+        <c:axId val="611394255"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="345743199"/>
+        <c:axId val="611398831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1077,7 +2861,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345746943"/>
+        <c:crossAx val="611394255"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1085,7 +2869,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345746943"/>
+        <c:axId val="611394255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1136,7 +2920,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345743199"/>
+        <c:crossAx val="611398831"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1148,6 +2932,38 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1180,7 +2996,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup orientation="landscape"/>
+    <c:pageSetup/>
   </c:printSettings>
   <c:extLst>
     <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
@@ -1188,6 +3004,7 @@
         <c14:dropZoneFilter val="1"/>
         <c14:dropZoneCategories val="1"/>
         <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
         <c14:dropZonesVisible val="1"/>
       </c14:pivotOptions>
     </c:ext>
@@ -1745,18 +3562,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="absolute">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>47624</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>138114</xdr:rowOff>
+      <xdr:col>143</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1773,24 +3590,65 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0" fPrintsWithSheet="0"/>
+    <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="PC" refreshedDate="44040.940051736114" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="PC" refreshedDate="44041.106473032407" backgroundQuery="1" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
   <cacheSource type="external" connectionId="1"/>
   <cacheFields count="5">
-    <cacheField name="[Trap].[Location].[Location]" caption="Location" numFmtId="0" hierarchy="22" level="1">
-      <sharedItems count="3">
+    <cacheField name="[Trap].[Location].[Location]" caption="Location" numFmtId="0" hierarchy="30" level="1">
+      <sharedItems count="37">
         <s v="[Trap].[Location].&amp;[9.881172, 105.542613]" c="9.881172, 105.542613"/>
         <s v="[Trap].[Location].&amp;[9.881172, 105.542614]" c="9.881172, 105.542614"/>
         <s v="[Trap].[Location].&amp;[9.881172, 105.542615]" c="9.881172, 105.542615"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542644]" c="9.881172, 105.542644"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542680]" c="9.881172, 105.542680"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542681]" c="9.881172, 105.542681"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542682]" c="9.881172, 105.542682"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542683]" c="9.881172, 105.542683"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542684]" c="9.881172, 105.542684"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542685]" c="9.881172, 105.542685"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542686]" c="9.881172, 105.542686"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542688]" c="9.881172, 105.542688"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542689]" c="9.881172, 105.542689"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542691]" c="9.881172, 105.542691"/>
+        <s v="[Trap].[Location].&amp;[9.881172, 105.542990]" c="9.881172, 105.542990"/>
+        <s v="[Trap].[Location].&amp;[9.881173, 105.542687]" c="9.881173, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881174, 105.542687]" c="9.881174, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881175, 105.542687]" c="9.881175, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881176, 105.542687]" c="9.881176, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881177, 105.542687]" c="9.881177, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881178, 105.542687]" c="9.881178, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881179, 105.542687]" c="9.881179, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881182, 105.542687]" c="9.881182, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881183, 105.542687]" c="9.881183, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881184, 105.542687]" c="9.881184, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881186, 105.542687]" c="9.881186, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881187, 105.542687]" c="9.881187, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881188, 105.542687]" c="9.881188, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881189, 105.542687]" c="9.881189, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881190, 105.542687]" c="9.881190, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881191, 105.542687]" c="9.881191, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881193, 105.542687]" c="9.881193, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881194, 105.542687]" c="9.881194, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881195, 105.542687]" c="9.881195, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881196, 105.542687]" c="9.881196, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881197, 105.542687]" c="9.881197, 105.542687"/>
+        <s v="[Trap].[Location].&amp;[9.881198, 105.542687]" c="9.881198, 105.542687"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Insect].[Sub Kind].[Sub Kind]" caption="Sub Kind" numFmtId="0" hierarchy="11" level="1">
-      <sharedItems count="7">
+    <cacheField name="[Insect].[Type].[Type]" caption="Type" numFmtId="0" hierarchy="19" level="1">
+      <sharedItems count="2">
+        <s v="[Insect].[Type].&amp;[False]" c="False"/>
+        <s v="[Insect].[Type].&amp;[True]" c="True"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Insect].[Sub Kind].[Sub Kind]" caption="Sub Kind" numFmtId="0" hierarchy="18" level="1">
+      <sharedItems count="8">
+        <s v="[Insect].[Sub Kind].&amp;[Cang thang]" c="Cang thang"/>
         <s v="[Insect].[Sub Kind].&amp;[Canh cung]" c="Canh cung"/>
         <s v="[Insect].[Sub Kind].&amp;[Canh mang]" c="Canh mang"/>
         <s v="[Insect].[Sub Kind].&amp;[Canh nua]" c="Canh nua"/>
@@ -1800,31 +3658,39 @@
         <s v="[Insect].[Sub Kind].&amp;[Sau buom]" c="Sau buom"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Insect].[Diet].[Diet]" caption="Diet" numFmtId="0" hierarchy="5" level="1">
-      <sharedItems count="1">
+    <cacheField name="[Insect].[Diet].[Diet]" caption="Diet" numFmtId="0" hierarchy="13" level="1">
+      <sharedItems count="7">
         <s v="[Insect].[Diet].&amp;[Bong lua]" c="Bong lua"/>
+        <s v="[Insect].[Diet].&amp;[Con trung khac]" c="Con trung khac"/>
+        <s v="[Insect].[Diet].&amp;[Dat]" c="Dat"/>
+        <s v="[Insect].[Diet].&amp;[Hat lua]" c="Hat lua"/>
+        <s v="[Insect].[Diet].&amp;[La lua]" c="La lua"/>
+        <s v="[Insect].[Diet].&amp;[Re cay]" c="Re cay"/>
+        <s v="[Insect].[Diet].&amp;[Than lua]" c="Than lua"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="[Insect].[Type].[Type]" caption="Type" numFmtId="0" hierarchy="12" level="1">
-      <sharedItems count="1">
-        <s v="[Insect].[Type].&amp;[True]" c="True"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="[Measures].[Insect Quantity]" caption="Insect Quantity" numFmtId="0" hierarchy="25" level="32767"/>
+    <cacheField name="[Measures].[Insect Quantity]" caption="Insect Quantity" numFmtId="0" hierarchy="37" level="32767"/>
   </cacheFields>
-  <cacheHierarchies count="29">
+  <cacheHierarchies count="41">
+    <cacheHierarchy uniqueName="[Facts].[Approximate Size]" caption="Approximate Size" attribute="1" defaultMemberUniqueName="[Facts].[Approximate Size].[All]" allUniqueName="[Facts].[Approximate Size].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Facts].[Checked Insect Line]" caption="Checked Insect Line" attribute="1" defaultMemberUniqueName="[Facts].[Checked Insect Line].[All]" allUniqueName="[Facts].[Checked Insect Line].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Facts].[Ecosystem]" caption="Ecosystem" attribute="1" defaultMemberUniqueName="[Facts].[Ecosystem].[All]" allUniqueName="[Facts].[Ecosystem].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Facts].[Insect Age]" caption="Insect Age" attribute="1" defaultMemberUniqueName="[Facts].[Insect Age].[All]" allUniqueName="[Facts].[Insect Age].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Facts].[Insect Quantity]" caption="Insect Quantity" attribute="1" defaultMemberUniqueName="[Facts].[Insect Quantity].[All]" allUniqueName="[Facts].[Insect Quantity].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Facts].[Pesticides Level]" caption="Pesticides Level" attribute="1" defaultMemberUniqueName="[Facts].[Pesticides Level].[All]" allUniqueName="[Facts].[Pesticides Level].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Facts].[Pesticides Level Formated]" caption="Pesticides Level Formated" attribute="1" defaultMemberUniqueName="[Facts].[Pesticides Level Formated].[All]" allUniqueName="[Facts].[Pesticides Level Formated].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Facts].[Time Key]" caption="Time Key" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Facts].[Time Key].[All]" allUniqueName="[Facts].[Time Key].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Farmer].[End Date]" caption="End Date" attribute="1" defaultMemberUniqueName="[Farmer].[End Date].[All]" allUniqueName="[Farmer].[End Date].[All]" dimensionUniqueName="[Farmer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Farmer].[Farmer Address]" caption="Farmer Address" attribute="1" defaultMemberUniqueName="[Farmer].[Farmer Address].[All]" allUniqueName="[Farmer].[Farmer Address].[All]" dimensionUniqueName="[Farmer]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Farmer].[Farmer ID]" caption="Farmer ID" attribute="1" defaultMemberUniqueName="[Farmer].[Farmer ID].[All]" allUniqueName="[Farmer].[Farmer ID].[All]" dimensionUniqueName="[Farmer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Farmer].[Farmer Key]" caption="Farmer Key" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Farmer].[Farmer Key].[All]" allUniqueName="[Farmer].[Farmer Key].[All]" dimensionUniqueName="[Farmer]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Farmer].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Farmer].[Hierarchy].[All]" allUniqueName="[Farmer].[Hierarchy].[All]" dimensionUniqueName="[Farmer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Farmer].[Start Date]" caption="Start Date" attribute="1" defaultMemberUniqueName="[Farmer].[Start Date].[All]" allUniqueName="[Farmer].[Start Date].[All]" dimensionUniqueName="[Farmer]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Insect].[Diet]" caption="Diet" attribute="1" defaultMemberUniqueName="[Insect].[Diet].[All]" allUniqueName="[Insect].[Diet].[All]" dimensionUniqueName="[Insect]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="2"/>
+        <fieldUsage x="3"/>
       </fieldsUsage>
     </cacheHierarchy>
-    <cacheHierarchy uniqueName="[Insect].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Insect].[Hierarchy].[All]" allUniqueName="[Insect].[Hierarchy].[All]" dimensionUniqueName="[Insect]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Insect].[Insect Key]" caption="Insect Key" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Insect].[Insect Key].[All]" allUniqueName="[Insect].[Insect Key].[All]" dimensionUniqueName="[Insect]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Insect].[Max Size]" caption="Max Size" attribute="1" defaultMemberUniqueName="[Insect].[Max Size].[All]" allUniqueName="[Insect].[Max Size].[All]" dimensionUniqueName="[Insect]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Insect].[Min Size]" caption="Min Size" attribute="1" defaultMemberUniqueName="[Insect].[Min Size].[All]" allUniqueName="[Insect].[Min Size].[All]" dimensionUniqueName="[Insect]" displayFolder="" count="0" unbalanced="0"/>
@@ -1832,24 +3698,25 @@
     <cacheHierarchy uniqueName="[Insect].[Sub Kind]" caption="Sub Kind" attribute="1" defaultMemberUniqueName="[Insect].[Sub Kind].[All]" allUniqueName="[Insect].[Sub Kind].[All]" dimensionUniqueName="[Insect]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="1"/>
+        <fieldUsage x="2"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Insect].[Type]" caption="Type" attribute="1" defaultMemberUniqueName="[Insect].[Type].[All]" allUniqueName="[Insect].[Type].[All]" dimensionUniqueName="[Insect]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
-        <fieldUsage x="3"/>
+        <fieldUsage x="1"/>
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Time].[Day]" caption="Day" attribute="1" defaultMemberUniqueName="[Time].[Day].[All]" allUniqueName="[Time].[Day].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Time].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Time].[Hierarchy].[All]" allUniqueName="[Time].[Hierarchy].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Time].[Day Formated]" caption="Day Formated" attribute="1" defaultMemberUniqueName="[Time].[Day Formated].[All]" allUniqueName="[Time].[Day Formated].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time].[Lunar Day]" caption="Lunar Day" attribute="1" defaultMemberUniqueName="[Time].[Lunar Day].[All]" allUniqueName="[Time].[Lunar Day].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time].[Lunar Month]" caption="Lunar Month" attribute="1" defaultMemberUniqueName="[Time].[Lunar Month].[All]" allUniqueName="[Time].[Lunar Month].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time].[Lunar Year]" caption="Lunar Year" attribute="1" defaultMemberUniqueName="[Time].[Lunar Year].[All]" allUniqueName="[Time].[Lunar Year].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time].[Month]" caption="Month" attribute="1" defaultMemberUniqueName="[Time].[Month].[All]" allUniqueName="[Time].[Month].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Time].[Month Formated]" caption="Month Formated" attribute="1" defaultMemberUniqueName="[Time].[Month Formated].[All]" allUniqueName="[Time].[Month Formated].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time].[Time Key]" caption="Time Key" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Time].[Time Key].[All]" allUniqueName="[Time].[Time Key].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Time].[Year]" caption="Year" attribute="1" defaultMemberUniqueName="[Time].[Year].[All]" allUniqueName="[Time].[Year].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
-    <cacheHierarchy uniqueName="[Trap].[Hierarchy]" caption="Hierarchy" defaultMemberUniqueName="[Trap].[Hierarchy].[All]" allUniqueName="[Trap].[Hierarchy].[All]" dimensionUniqueName="[Trap]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Time].[Year Month]" caption="Year Month" attribute="1" defaultMemberUniqueName="[Time].[Year Month].[All]" allUniqueName="[Time].[Year Month].[All]" dimensionUniqueName="[Time]" displayFolder="" count="0" unbalanced="0"/>
     <cacheHierarchy uniqueName="[Trap].[Location]" caption="Location" attribute="1" defaultMemberUniqueName="[Trap].[Location].[All]" allUniqueName="[Trap].[Location].[All]" dimensionUniqueName="[Trap]" displayFolder="" count="2" unbalanced="0">
       <fieldsUsage count="2">
         <fieldUsage x="-1"/>
@@ -1857,6 +3724,10 @@
       </fieldsUsage>
     </cacheHierarchy>
     <cacheHierarchy uniqueName="[Trap].[Trap Key]" caption="Trap Key" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Trap].[Trap Key].[All]" allUniqueName="[Trap].[Trap Key].[All]" dimensionUniqueName="[Trap]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Facts].[Facts - Time Key]" caption="Facts - Time Key" attribute="1" defaultMemberUniqueName="[Facts].[Facts - Time Key].[All]" allUniqueName="[Facts].[Facts - Time Key].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Facts].[Farmer Key]" caption="Farmer Key" attribute="1" defaultMemberUniqueName="[Facts].[Farmer Key].[All]" allUniqueName="[Facts].[Farmer Key].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Facts].[Insect Key]" caption="Insect Key" attribute="1" defaultMemberUniqueName="[Facts].[Insect Key].[All]" allUniqueName="[Facts].[Insect Key].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Facts].[Trap Key]" caption="Trap Key" attribute="1" defaultMemberUniqueName="[Facts].[Trap Key].[All]" allUniqueName="[Facts].[Trap Key].[All]" dimensionUniqueName="[Facts]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
     <cacheHierarchy uniqueName="[Measures].[Pesticides Level]" caption="Pesticides Level" measure="1" displayFolder="" measureGroup="Facts" count="0"/>
     <cacheHierarchy uniqueName="[Measures].[Insect Quantity]" caption="Insect Quantity" measure="1" displayFolder="" measureGroup="Facts" count="0" oneField="1">
       <fieldsUsage count="1">
@@ -1868,7 +3739,8 @@
     <cacheHierarchy uniqueName="[Measures].[Facts Count]" caption="Facts Count" measure="1" displayFolder="" measureGroup="Facts" count="0"/>
   </cacheHierarchies>
   <kpis count="0"/>
-  <dimensions count="5">
+  <dimensions count="6">
+    <dimension name="Facts" uniqueName="[Facts]" caption="Facts"/>
     <dimension name="Farmer" uniqueName="[Farmer]" caption="Farmer"/>
     <dimension name="Insect" uniqueName="[Insect]" caption="Insect"/>
     <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
@@ -1878,11 +3750,12 @@
   <measureGroups count="1">
     <measureGroup name="Facts" caption="Facts"/>
   </measureGroups>
-  <maps count="4">
+  <maps count="5">
     <map measureGroup="0" dimension="0"/>
     <map measureGroup="0" dimension="1"/>
-    <map measureGroup="0" dimension="3"/>
+    <map measureGroup="0" dimension="2"/>
     <map measureGroup="0" dimension="4"/>
+    <map measureGroup="0" dimension="5"/>
   </maps>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
@@ -1893,38 +3766,80 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="124" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
-  <location ref="A1:B15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A1:B432" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="4">
-        <item s="1" x="0"/>
-        <item s="1" x="1"/>
-        <item s="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
-      <items count="8">
-        <item x="0" e="0"/>
-        <item x="1" e="0"/>
-        <item x="2" e="0"/>
-        <item x="3" e="0"/>
-        <item x="4" e="0"/>
-        <item x="5" e="0"/>
-        <item x="6" e="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1">
-      <items count="2">
-        <item x="0" e="0"/>
+      <items count="38">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
-      <items count="2">
+      <items count="3">
         <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" showAll="0" dataSourceSort="1" defaultAttributeDrillState="1">
+      <items count="8">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -1936,27 +3851,69 @@
     <field x="2"/>
     <field x="3"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="431">
     <i>
       <x/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
     </i>
     <i>
       <x v="1"/>
     </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
       <x v="1"/>
     </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
     <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
       <x v="6"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
     </i>
     <i>
       <x v="2"/>
@@ -1964,17 +3921,1226 @@
     <i r="1">
       <x/>
     </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
     <i r="1">
       <x v="1"/>
     </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
       <x v="2"/>
     </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
     <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
       <x v="4"/>
     </i>
+    <i>
+      <x v="8"/>
+    </i>
     <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
       <x v="5"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x v="7"/>
+    </i>
+    <i r="3">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="4"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
+    </i>
+    <i r="2">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="3">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x v="5"/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="6"/>
+    </i>
+    <i r="3">
+      <x v="6"/>
     </i>
     <i t="grand">
       <x/>
@@ -1987,7 +5153,7 @@
     <dataField fld="4" baseField="0" baseItem="0"/>
   </dataFields>
   <chartFormats count="1">
-    <chartFormat chart="0" format="9" series="1">
+    <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -1997,7 +5163,7 @@
       </pivotArea>
     </chartFormat>
   </chartFormats>
-  <pivotHierarchies count="29">
+  <pivotHierarchies count="41">
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
@@ -2020,14 +5186,19 @@
     <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy/>
-    <pivotHierarchy>
-      <members count="4" level="1">
-        <member name=""/>
-        <member name=""/>
-        <member name=""/>
-        <member name="[Trap].[Location].&amp;[9.881172, 105.542633]"/>
-      </members>
-    </pivotHierarchy>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
     <pivotHierarchy/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
     <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
@@ -2037,10 +5208,10 @@
   </pivotHierarchies>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <rowHierarchiesUsage count="4">
-    <rowHierarchyUsage hierarchyUsage="22"/>
-    <rowHierarchyUsage hierarchyUsage="11"/>
-    <rowHierarchyUsage hierarchyUsage="5"/>
-    <rowHierarchyUsage hierarchyUsage="12"/>
+    <rowHierarchyUsage hierarchyUsage="30"/>
+    <rowHierarchyUsage hierarchyUsage="19"/>
+    <rowHierarchyUsage hierarchyUsage="18"/>
+    <rowHierarchyUsage hierarchyUsage="13"/>
   </rowHierarchiesUsage>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -2313,15 +5484,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B432"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2330,131 +5499,3459 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
         <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
-        <v>122</v>
+        <v>39</v>
+      </c>
+      <c r="B3" s="6">
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="4">
-        <v>707</v>
+      <c r="A4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="6">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4">
-        <v>30</v>
+      <c r="A5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="6">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="4">
-        <v>172</v>
+        <v>40</v>
+      </c>
+      <c r="B6" s="6">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4">
-        <v>342</v>
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="6">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="4">
-        <v>163</v>
+      <c r="A8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="6">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4">
-        <v>472</v>
+        <v>2</v>
+      </c>
+      <c r="B9" s="6">
+        <v>707</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="6">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="6">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="6">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="6">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="6">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="6">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="6">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B37" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" s="6">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" s="6">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B49" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B52" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B55" s="6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="6">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B57" s="6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" s="6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B62" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B63" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B66" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B67" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B69" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B72" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B74" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" s="6">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B76" s="6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77" s="6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" s="6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B79" s="6">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B81" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B82" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B83" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="B84" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B87" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B90" s="6">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" s="6">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B94" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B96" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B99" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B100" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="6">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104" s="6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B105" s="6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B106" s="6">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B107" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B108" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B109" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B110" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B111" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B113" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B114" s="6">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B116" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B117" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B118" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B120" s="6">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B121" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B122" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B123" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B124" s="6">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B125" s="6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B126" s="6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B128" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B129" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B130" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B131" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B132" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B133" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B134" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B135" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B136" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" s="6">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B138" s="6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B139" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B140" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B141" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B142" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B143" s="6">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B144" s="6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B145" s="6">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B146" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B147" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B148" s="6">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B149" s="6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B150" s="6">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B151" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B152" s="6">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B153" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B154" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B155" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B156" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B157" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B158" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B159" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B160" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B161" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B162" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B163" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B164" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B165" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B166" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B167" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B168" s="6">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B169" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B170" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B171" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B172" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B173" s="6">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B174" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B175" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B176" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B177" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B178" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B179" s="6">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B180" s="6">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B181" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B182" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B183" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B184" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B185" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B186" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B187" s="6">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B188" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B189" s="6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B190" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B191" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B192" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B193" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B194" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B195" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B196" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B197" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B198" s="6">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B199" s="6">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B200" s="6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B201" s="6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B202" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B203" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B204" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B205" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B206" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B207" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B208" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B209" s="6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B210" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B211" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B212" s="6">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B213" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B214" s="6">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B215" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B216" s="6">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B217" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B218" s="6">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B219" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B220" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B221" s="6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B222" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B223" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B224" s="6">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B225" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B226" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B227" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B228" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B229" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B230" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B231" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B232" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B233" s="6">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B234" s="6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B235" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B236" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B237" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B238" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B239" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B240" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B241" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B242" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B243" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B244" s="6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B245" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B246" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B247" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B248" s="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B249" s="6">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B250" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B251" s="6">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B252" s="6">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B253" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B254" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B255" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B256" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B257" s="6">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B258" s="6">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B259" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B260" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B261" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B262" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B263" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B264" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B265" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B266" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B267" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B268" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B269" s="6">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B270" s="6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B271" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B272" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B273" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B274" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B275" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B276" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B277" s="6">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B278" s="6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B279" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B280" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B281" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B282" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B283" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B284" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B285" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="4">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B286" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B287" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B288" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B289" s="6">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B290" s="6">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B291" s="6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B292" s="6">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B293" s="6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B294" s="6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B295" s="6">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B296" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B297" s="6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B298" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B299" s="6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B300" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B301" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B302" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B303" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B304" s="6">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B305" s="6">
         <v>8</v>
       </c>
-      <c r="B14" s="4">
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B306" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B307" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B308" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B309" s="6">
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4">
-        <v>1301</v>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B310" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B311" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B312" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B313" s="6">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B314" s="6">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B315" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B316" s="6">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B317" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B318" s="6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B319" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B320" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B321" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B322" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B323" s="6">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B324" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B325" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B326" s="6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B327" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B328" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B329" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B330" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B331" s="6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B332" s="6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B333" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B334" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B335" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B336" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B337" s="6">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B338" s="6">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B339" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B340" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B341" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B342" s="6">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B343" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B344" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B345" s="6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B346" s="6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B347" s="6">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B348" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B349" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B350" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B351" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B352" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B353" s="6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B354" s="6">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B355" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B356" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B357" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B358" s="6">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B359" s="6">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B360" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B361" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B362" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B363" s="6">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B364" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B365" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B366" s="6">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B367" s="6">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B368" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B369" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B370" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B371" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B372" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B373" s="6">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B374" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B375" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B376" s="6">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B377" s="6">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B378" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B379" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B380" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B381" s="6">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B382" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B383" s="6">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B384" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B385" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B386" s="6">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B387" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B388" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B389" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B390" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B391" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B392" s="6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B393" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B394" s="6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B395" s="6">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B396" s="6">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B397" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B398" s="6">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B399" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B400" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B401" s="6">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B402" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B403" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B404" s="6">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B405" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B406" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B407" s="6">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B408" s="6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B409" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B410" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B411" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B412" s="6">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B413" s="6">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B414" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B415" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B416" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B417" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B418" s="6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B419" s="6">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B420" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B421" s="6">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B422" s="6">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B423" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B424" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B425" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B426" s="6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B427" s="6">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B428" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B429" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B430" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B431" s="6">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B432" s="6">
+        <v>10648</v>
       </c>
     </row>
   </sheetData>
-  <customSheetViews>
-    <customSheetView guid="{705E98C3-12C3-42BE-9B32-82986278AAE5}" showPageBreaks="1">
-      <selection activeCell="A26" sqref="A26"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup orientation="portrait" r:id="rId2"/>
-    </customSheetView>
-  </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>